--- a/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{799D5C2E-F5D8-4658-94EF-265AA36CFE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1901724-3AFF-480A-A240-C45AAD2E2FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2BACE76A-77FB-4AD1-B89C-5399000FAD65}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{248E3CEF-A982-4AFB-9FB7-F950E7DB9FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,274 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>1,22%</t>
@@ -98,39 +362,6 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>1,61%</t>
   </si>
   <si>
@@ -158,39 +389,6 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>7,33%</t>
   </si>
   <si>
@@ -218,144 +416,171 @@
     <t>8,94%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
     <t>7,39%</t>
   </si>
   <si>
@@ -368,9 +593,6 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>7,17%</t>
   </si>
   <si>
@@ -380,30 +602,6 @@
     <t>8,28%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
     <t>2,98%</t>
   </si>
   <si>
@@ -422,33 +620,6 @@
     <t>4,8%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
     <t>2,88%</t>
   </si>
   <si>
@@ -464,175 +635,58 @@
     <t>5,15%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>3,32%</t>
@@ -659,33 +713,6 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
     <t>1,69%</t>
   </si>
   <si>
@@ -705,33 +732,6 @@
   </si>
   <si>
     <t>2,93%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
   </si>
   <si>
     <t>2,44%</t>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD736B-AD48-4E90-B375-2C71C4C83D49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1F53D8-15FE-468E-ACD4-1F581AA65025}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1262,10 +1262,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>1800</v>
+        <v>5645</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1277,10 +1277,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>2613</v>
+        <v>8018</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1292,10 +1292,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>4413</v>
+        <v>13662</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1313,10 +1313,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>41494</v>
+        <v>910</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1328,10 +1328,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>21129</v>
+        <v>1750</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1343,10 +1343,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>62623</v>
+        <v>2660</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1364,151 +1364,151 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2387</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1911</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>6</v>
-      </c>
-      <c r="N6" s="7">
-        <v>4299</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>91402</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>73333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>164735</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>10844</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>3253</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>14097</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,102 +1517,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>147928</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>250167</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>3540</v>
+        <v>45362</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>705</v>
+        <v>39313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>4245</v>
+        <v>84675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1627,13 @@
         <v>18742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -1642,13 +1642,13 @@
         <v>4909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -1657,13 +1657,13 @@
         <v>23650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,106 +1672,106 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>3540</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>2441</v>
+        <v>705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>2441</v>
+        <v>4245</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>45362</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>39313</v>
+        <v>2441</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>84675</v>
+        <v>2441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1780,13 +1780,13 @@
         <v>1634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1795,13 +1795,13 @@
         <v>4231</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1810,13 +1810,13 @@
         <v>5865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,13 +1831,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1846,13 +1846,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1861,66 +1861,66 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7">
-        <v>6872</v>
+        <v>91402</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>2262</v>
+        <v>73333</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="N16" s="7">
-        <v>9135</v>
+        <v>164735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,49 +1929,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>8238</v>
+        <v>41494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>20122</v>
+        <v>21129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="N17" s="7">
-        <v>28360</v>
+        <v>62623</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,151 +1980,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2773</v>
+        <v>1800</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1088</v>
+        <v>2613</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>3861</v>
+        <v>4413</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>72423</v>
+        <v>2387</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>72594</v>
+        <v>1911</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>145016</v>
+        <v>4299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>2679</v>
+        <v>10844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3253</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="7">
+        <v>16</v>
+      </c>
+      <c r="N20" s="7">
+        <v>14097</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1832</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4511</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,102 +2133,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D21" s="7">
-        <v>92986</v>
+        <v>147928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>97898</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="N21" s="7">
-        <v>190884</v>
+        <v>250167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>82589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>77316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>159906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,49 +2237,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>910</v>
+        <v>13718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7">
-        <v>1750</v>
+        <v>15267</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N23" s="7">
-        <v>2660</v>
+        <v>28986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,151 +2288,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>2608</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>4283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>5645</v>
+        <v>1907</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1818</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3724</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="7">
-        <v>13</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8018</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M25" s="7">
-        <v>21</v>
-      </c>
-      <c r="N25" s="7">
-        <v>13662</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2098</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>2830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,49 +2441,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>97742</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>199729</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,49 +2494,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7">
-        <v>1675</v>
+        <v>72423</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="I28" s="7">
-        <v>2608</v>
+        <v>72594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="N28" s="7">
-        <v>4283</v>
+        <v>145016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,40 +2545,40 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>13718</v>
+        <v>8238</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I29" s="7">
-        <v>15267</v>
+        <v>20122</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>177</v>
       </c>
       <c r="M29" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N29" s="7">
-        <v>28986</v>
+        <v>28360</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>178</v>
@@ -2596,148 +2596,148 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>1907</v>
+        <v>6872</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>1818</v>
+        <v>2262</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>3724</v>
+        <v>9135</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>82589</v>
+        <v>2773</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H31" s="7">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>77316</v>
+        <v>1088</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M31" s="7">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="N31" s="7">
-        <v>159906</v>
+        <v>3861</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>2098</v>
+        <v>2679</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1832</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>733</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>2830</v>
+        <v>4511</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>198</v>
@@ -2749,49 +2749,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="I33" s="7">
-        <v>97742</v>
+        <v>97898</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="N33" s="7">
-        <v>199729</v>
+        <v>190884</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,10 +2802,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D34" s="7">
-        <v>13888</v>
+        <v>297420</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>199</v>
@@ -2817,34 +2817,34 @@
         <v>201</v>
       </c>
       <c r="H34" s="7">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="I34" s="7">
-        <v>8188</v>
+        <v>270574</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
-        <v>29</v>
+        <v>706</v>
       </c>
       <c r="N34" s="7">
-        <v>22076</v>
+        <v>567994</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2859,13 @@
         <v>83103</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -2874,13 +2874,13 @@
         <v>63177</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>179</v>
@@ -2889,13 +2889,13 @@
         <v>146280</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,79 +2904,79 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D36" s="7">
-        <v>7067</v>
+        <v>13888</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36" s="7">
-        <v>7257</v>
+        <v>8188</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N36" s="7">
-        <v>14325</v>
+        <v>22076</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>349</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>297420</v>
+        <v>7067</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="I37" s="7">
-        <v>270574</v>
+        <v>7257</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>227</v>
@@ -2985,10 +2985,10 @@
         <v>228</v>
       </c>
       <c r="M37" s="7">
-        <v>706</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>567994</v>
+        <v>14325</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>229</v>
@@ -3003,7 +3003,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
         <v>18</v>
@@ -3012,7 +3012,7 @@
         <v>17255</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>232</v>
@@ -3042,7 +3042,7 @@
         <v>27304</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>237</v>
@@ -3063,13 +3063,13 @@
         <v>418734</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>473</v>
@@ -3078,13 +3078,13 @@
         <v>359245</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>962</v>
@@ -3093,13 +3093,13 @@
         <v>777979</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1901724-3AFF-480A-A240-C45AAD2E2FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E23A5D-5741-4BEB-B664-82AAC01516BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{248E3CEF-A982-4AFB-9FB7-F950E7DB9FF4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FCFC9B4-BAD7-47B5-8330-C086A6A2A178}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="243">
   <si>
     <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 50,1%)</t>
   </si>
@@ -68,6 +68,57 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
@@ -98,661 +149,622 @@
     <t>94,45%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>70,05%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>71,03%</t>
   </si>
   <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -763,7 +775,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -859,39 +871,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -943,7 +955,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1054,13 +1066,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1069,6 +1074,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1133,19 +1145,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1F53D8-15FE-468E-ACD4-1F581AA65025}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9EAF1C-0618-449B-A78E-595020D5D369}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1262,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5645</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1277,91 +1309,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>8018</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>21</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13662</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2660</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1370,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1385,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1400,115 +1432,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1750</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>5645</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8018</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>13662</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,106 +1602,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>45362</v>
+        <v>1634</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4231</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="7">
-        <v>60</v>
-      </c>
-      <c r="I10" s="7">
-        <v>39313</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5865</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="7">
-        <v>111</v>
-      </c>
-      <c r="N10" s="7">
-        <v>84675</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>18742</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2441</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4909</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2441</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="M11" s="7">
-        <v>27</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23650</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -1678,13 +1710,13 @@
         <v>3540</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1693,13 +1725,13 @@
         <v>705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1708,91 +1740,91 @@
         <v>4245</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>18742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4909</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2441</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23650</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2441</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>1634</v>
+        <v>45362</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>4231</v>
+        <v>39313</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>74</v>
@@ -1804,10 +1836,10 @@
         <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7">
-        <v>5865</v>
+        <v>84675</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>77</v>
@@ -1878,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>91402</v>
+        <v>10844</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>81</v>
@@ -1893,10 +1925,10 @@
         <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>73333</v>
+        <v>3253</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>84</v>
@@ -1908,10 +1940,10 @@
         <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>164735</v>
+        <v>14097</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>87</v>
@@ -1926,13 +1958,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>41494</v>
+        <v>2387</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>90</v>
@@ -1944,10 +1976,10 @@
         <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>21129</v>
+        <v>1911</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>93</v>
@@ -1959,10 +1991,10 @@
         <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>62623</v>
+        <v>4299</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>96</v>
@@ -1977,7 +2009,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -1986,13 +2018,13 @@
         <v>1800</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2001,13 +2033,13 @@
         <v>2613</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2016,115 +2048,115 @@
         <v>4413</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>2387</v>
+        <v>41494</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>30</v>
+      </c>
+      <c r="I19" s="7">
+        <v>21129</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1911</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>76</v>
+      </c>
+      <c r="N19" s="7">
+        <v>62623</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4299</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D20" s="7">
-        <v>10844</v>
+        <v>91402</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>96</v>
+      </c>
+      <c r="I20" s="7">
+        <v>73333</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3253</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>207</v>
+      </c>
+      <c r="N20" s="7">
+        <v>164735</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>16</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14097</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,112 +2212,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>82589</v>
+        <v>2098</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>733</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="7">
-        <v>91</v>
-      </c>
-      <c r="I22" s="7">
-        <v>77316</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2830</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M22" s="7">
-        <v>179</v>
-      </c>
-      <c r="N22" s="7">
-        <v>159906</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>13718</v>
+        <v>1907</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1818</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3724</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="7">
-        <v>21</v>
-      </c>
-      <c r="I23" s="7">
-        <v>15267</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M23" s="7">
-        <v>38</v>
-      </c>
-      <c r="N23" s="7">
-        <v>28986</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -2294,13 +2326,13 @@
         <v>1675</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2309,13 +2341,13 @@
         <v>2608</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2324,112 +2356,112 @@
         <v>4283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>1907</v>
+        <v>13718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7">
+        <v>15267</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>38</v>
+      </c>
+      <c r="N25" s="7">
+        <v>28986</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1818</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3724</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7">
-        <v>2098</v>
+        <v>82589</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>91</v>
+      </c>
+      <c r="I26" s="7">
+        <v>77316</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>733</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>179</v>
+      </c>
+      <c r="N26" s="7">
+        <v>159906</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2830</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>162</v>
@@ -2494,106 +2526,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>72423</v>
+        <v>2679</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1832</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="7">
-        <v>97</v>
-      </c>
-      <c r="I28" s="7">
-        <v>72594</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>5</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4511</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="7">
-        <v>188</v>
-      </c>
-      <c r="N28" s="7">
-        <v>145016</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>8238</v>
+        <v>2773</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1088</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>7</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3861</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H29" s="7">
-        <v>25</v>
-      </c>
-      <c r="I29" s="7">
-        <v>20122</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M29" s="7">
-        <v>34</v>
-      </c>
-      <c r="N29" s="7">
-        <v>28360</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
         <v>9</v>
@@ -2602,13 +2634,13 @@
         <v>6872</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2617,13 +2649,13 @@
         <v>2262</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -2632,115 +2664,115 @@
         <v>9135</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7">
-        <v>2773</v>
+        <v>8238</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="7">
+        <v>25</v>
+      </c>
+      <c r="I31" s="7">
+        <v>20122</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>34</v>
+      </c>
+      <c r="N31" s="7">
+        <v>28360</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1088</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="M31" s="7">
-        <v>7</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3861</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D32" s="7">
-        <v>2679</v>
+        <v>72423</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>195</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="I32" s="7">
-        <v>1832</v>
+        <v>72594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="N32" s="7">
-        <v>4511</v>
+        <v>145016</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,46 +2834,46 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="D34" s="7">
-        <v>297420</v>
+        <v>17255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H34" s="7">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="I34" s="7">
-        <v>270574</v>
+        <v>10049</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
-        <v>706</v>
+        <v>28</v>
       </c>
       <c r="N34" s="7">
-        <v>567994</v>
+        <v>27304</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>207</v>
@@ -2850,13 +2882,13 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D35" s="7">
-        <v>83103</v>
+        <v>7067</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>208</v>
@@ -2868,40 +2900,40 @@
         <v>210</v>
       </c>
       <c r="H35" s="7">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="I35" s="7">
-        <v>63177</v>
+        <v>7257</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>20</v>
+      </c>
+      <c r="N35" s="7">
+        <v>14325</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M35" s="7">
-        <v>179</v>
-      </c>
-      <c r="N35" s="7">
-        <v>146280</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
         <v>18</v>
@@ -2910,13 +2942,13 @@
         <v>13888</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -2925,13 +2957,13 @@
         <v>8188</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -2940,115 +2972,115 @@
         <v>22076</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D37" s="7">
-        <v>7067</v>
+        <v>83103</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>226</v>
       </c>
       <c r="H37" s="7">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I37" s="7">
-        <v>7257</v>
+        <v>63177</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" s="7">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="N37" s="7">
-        <v>14325</v>
+        <v>146280</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D38" s="7">
-        <v>17255</v>
+        <v>297420</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H38" s="7">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="I38" s="7">
-        <v>10049</v>
+        <v>270574</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
-        <v>28</v>
+        <v>706</v>
       </c>
       <c r="N38" s="7">
-        <v>27304</v>
+        <v>567994</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,6 +3132,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E23A5D-5741-4BEB-B664-82AAC01516BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E621BA7-EB97-4EF9-95E2-ECF2ADE2126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FCFC9B4-BAD7-47B5-8330-C086A6A2A178}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E219C67-2747-4B02-A75C-D678CD7FA525}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
   <si>
     <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 50,1%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -98,25 +98,22 @@
     <t>13,89%</t>
   </si>
   <si>
-    <t>57,38%</t>
+    <t>56,87%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
+    <t>39,16%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -125,7 +122,7 @@
     <t>86,11%</t>
   </si>
   <si>
-    <t>42,62%</t>
+    <t>43,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -134,49 +131,46 @@
     <t>82,08%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>60,84%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>7,2%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -185,289 +179,289 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>61,79%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>12,05%</t>
+    <t>10,28%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>3,86%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>5,19%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>4,37%</t>
@@ -476,55 +470,55 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -533,235 +527,235 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>14,23%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
     <t>71,03%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>69,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1176,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9EAF1C-0618-449B-A78E-595020D5D369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E442222A-6146-4599-A0AA-D80067D61C89}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,10 +1465,10 @@
         <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1483,19 +1477,19 @@
         <v>2660</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1504,13 +1498,13 @@
         <v>5645</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -1519,13 +1513,13 @@
         <v>8018</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -1534,13 +1528,13 @@
         <v>13662</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,13 +1549,13 @@
         <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -1570,13 +1564,13 @@
         <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -1585,18 +1579,18 @@
         <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1602,13 @@
         <v>1634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1623,13 +1617,13 @@
         <v>4231</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1638,13 +1632,13 @@
         <v>5865</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1674,13 +1668,13 @@
         <v>2441</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1689,13 +1683,13 @@
         <v>2441</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1704,13 @@
         <v>3540</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1725,13 +1719,13 @@
         <v>705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1740,13 +1734,13 @@
         <v>4245</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1755,13 @@
         <v>18742</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1776,13 +1770,13 @@
         <v>4909</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -1791,19 +1785,19 @@
         <v>23650</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>51</v>
@@ -1812,13 +1806,13 @@
         <v>45362</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -1827,13 +1821,13 @@
         <v>39313</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -1842,13 +1836,13 @@
         <v>84675</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1857,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1878,13 +1872,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1893,18 +1887,18 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1916,13 +1910,13 @@
         <v>10844</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1931,13 +1925,13 @@
         <v>3253</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1946,13 +1940,13 @@
         <v>14097</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1961,13 @@
         <v>2387</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1982,13 +1976,13 @@
         <v>1911</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1997,13 +1991,13 @@
         <v>4299</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +2012,13 @@
         <v>1800</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2033,13 +2027,13 @@
         <v>2613</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2048,13 +2042,13 @@
         <v>4413</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2063,13 @@
         <v>41494</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2084,13 +2078,13 @@
         <v>21129</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -2099,19 +2093,19 @@
         <v>62623</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
         <v>111</v>
@@ -2120,13 +2114,13 @@
         <v>91402</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -2135,13 +2129,13 @@
         <v>73333</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>207</v>
@@ -2150,13 +2144,13 @@
         <v>164735</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2165,13 @@
         <v>147928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" s="7">
         <v>136</v>
@@ -2186,13 +2180,13 @@
         <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M21" s="7">
         <v>311</v>
@@ -2201,18 +2195,18 @@
         <v>250167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2224,13 +2218,13 @@
         <v>2098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2239,13 +2233,13 @@
         <v>733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2254,13 +2248,13 @@
         <v>2830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2269,13 @@
         <v>1907</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2290,13 +2284,13 @@
         <v>1818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2305,13 +2299,13 @@
         <v>3724</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2320,13 @@
         <v>1675</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2341,13 +2335,13 @@
         <v>2608</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2356,13 +2350,13 @@
         <v>4283</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2371,13 @@
         <v>13718</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2392,13 +2386,13 @@
         <v>15267</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -2407,19 +2401,19 @@
         <v>28986</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>88</v>
@@ -2428,13 +2422,13 @@
         <v>82589</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -2443,13 +2437,13 @@
         <v>77316</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -2458,13 +2452,13 @@
         <v>159906</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2473,13 @@
         <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>119</v>
@@ -2494,13 +2488,13 @@
         <v>97742</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>229</v>
@@ -2509,18 +2503,18 @@
         <v>199729</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2532,13 +2526,13 @@
         <v>2679</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2547,13 +2541,13 @@
         <v>1832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -2562,13 +2556,13 @@
         <v>4511</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2577,13 @@
         <v>2773</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2598,13 +2592,13 @@
         <v>1088</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2613,13 +2607,13 @@
         <v>3861</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2628,13 @@
         <v>6872</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2649,13 +2643,13 @@
         <v>2262</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -2664,13 +2658,13 @@
         <v>9135</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2679,13 @@
         <v>8238</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -2700,13 +2694,13 @@
         <v>20122</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -2715,19 +2709,19 @@
         <v>28360</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>91</v>
@@ -2736,13 +2730,13 @@
         <v>72423</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>97</v>
@@ -2751,13 +2745,13 @@
         <v>72594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>188</v>
@@ -2766,13 +2760,13 @@
         <v>145016</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2781,13 @@
         <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7">
         <v>129</v>
@@ -2802,13 +2796,13 @@
         <v>97898</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M33" s="7">
         <v>246</v>
@@ -2817,13 +2811,13 @@
         <v>190884</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2834,13 @@
         <v>17255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -2855,13 +2849,13 @@
         <v>10049</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>28</v>
@@ -2870,13 +2864,13 @@
         <v>27304</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2885,13 @@
         <v>7067</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -2906,13 +2900,13 @@
         <v>7257</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
@@ -2921,13 +2915,13 @@
         <v>14325</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2936,13 @@
         <v>13888</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -2957,13 +2951,13 @@
         <v>8188</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -2972,13 +2966,13 @@
         <v>22076</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2987,13 @@
         <v>83103</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>85</v>
@@ -3008,13 +3002,13 @@
         <v>63177</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M37" s="7">
         <v>179</v>
@@ -3023,19 +3017,19 @@
         <v>146280</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="7">
         <v>349</v>
@@ -3044,13 +3038,13 @@
         <v>297420</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H38" s="7">
         <v>357</v>
@@ -3059,13 +3053,13 @@
         <v>270574</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M38" s="7">
         <v>706</v>
@@ -3074,13 +3068,13 @@
         <v>567994</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3089,13 @@
         <v>418734</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>473</v>
@@ -3110,13 +3104,13 @@
         <v>359245</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>962</v>
@@ -3125,18 +3119,18 @@
         <v>777979</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A22_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E621BA7-EB97-4EF9-95E2-ECF2ADE2126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{166EF7AF-7586-41B1-8310-155EBDE33C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E219C67-2747-4B02-A75C-D678CD7FA525}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A301B1EF-50BA-4FBC-8350-79F1134F42B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
-  <si>
-    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
+  <si>
+    <t>Menores según frecuencia de sentirse solo/a en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,697 +65,574 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1170,8 +1047,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E442222A-6146-4599-A0AA-D80067D61C89}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6088D1-B868-4959-AE35-04E5C1E874B5}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1288,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>40656</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1303,238 +1180,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>54942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>95598</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>16111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>19047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>35158</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>9299</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>10016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>910</v>
+        <v>629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1750</v>
+        <v>783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2660</v>
+        <v>1412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>5645</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>8018</v>
+        <v>1003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>13662</v>
+        <v>1003</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,306 +1420,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7">
-        <v>6555</v>
+        <v>58113</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>9768</v>
+        <v>85074</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="N9" s="7">
-        <v>16322</v>
+        <v>143187</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>1634</v>
+        <v>71820</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="I10" s="7">
-        <v>4231</v>
+        <v>103813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="N10" s="7">
-        <v>5865</v>
+        <v>175633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>21781</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>2441</v>
+        <v>38192</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="N11" s="7">
-        <v>2441</v>
+        <v>59973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>3540</v>
+        <v>2882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>705</v>
+        <v>4389</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>4245</v>
+        <v>7271</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>18742</v>
+        <v>783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>4909</v>
+        <v>1884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>23650</v>
+        <v>2667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>45362</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>39313</v>
+        <v>937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>84675</v>
+        <v>937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,303 +1728,303 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>69278</v>
+        <v>97266</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="I15" s="7">
-        <v>51598</v>
+        <v>149215</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="N15" s="7">
-        <v>120876</v>
+        <v>246482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>10844</v>
+        <v>53028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="I16" s="7">
-        <v>3253</v>
+        <v>80890</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="N16" s="7">
-        <v>14097</v>
+        <v>133918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>2387</v>
+        <v>61780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>1911</v>
+        <v>26857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="N17" s="7">
-        <v>4299</v>
+        <v>88638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>2613</v>
+        <v>1216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>4413</v>
+        <v>1216</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>41494</v>
+        <v>4016</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>21129</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>62623</v>
+        <v>4016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="7">
-        <v>91402</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>73333</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="M20" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>164735</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>123</v>
@@ -2159,49 +2036,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7">
-        <v>147928</v>
+        <v>118824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>102239</v>
+        <v>108964</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="N21" s="7">
-        <v>250167</v>
+        <v>227788</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,253 +2089,253 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D22" s="7">
-        <v>2098</v>
+        <v>63724</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>733</v>
+        <v>69140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="N22" s="7">
-        <v>2830</v>
+        <v>132864</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7">
-        <v>1907</v>
+        <v>26026</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>1818</v>
+        <v>23353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>3724</v>
+        <v>49379</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>1675</v>
+        <v>5209</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>2608</v>
+        <v>2743</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>4283</v>
+        <v>7952</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>13718</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>15267</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>28986</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>82589</v>
+        <v>804</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="7">
-        <v>91</v>
-      </c>
-      <c r="I26" s="7">
-        <v>77316</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>804</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="M26" s="7">
-        <v>179</v>
-      </c>
-      <c r="N26" s="7">
-        <v>159906</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,96 +2344,96 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>101987</v>
+        <v>95763</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I27" s="7">
-        <v>97742</v>
+        <v>95235</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="N27" s="7">
-        <v>199729</v>
+        <v>190999</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="D28" s="7">
-        <v>2679</v>
+        <v>229228</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="7">
+        <v>345</v>
+      </c>
+      <c r="I28" s="7">
+        <v>308785</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1832</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>661</v>
+      </c>
+      <c r="N28" s="7">
+        <v>538013</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="M28" s="7">
-        <v>5</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4511</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>165</v>
@@ -2568,196 +2445,196 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="D29" s="7">
-        <v>2773</v>
+        <v>125699</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="I29" s="7">
-        <v>1088</v>
+        <v>107448</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="N29" s="7">
-        <v>3861</v>
+        <v>233148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8808</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="7">
         <v>17</v>
       </c>
-      <c r="C30" s="7">
-        <v>9</v>
-      </c>
-      <c r="D30" s="7">
-        <v>6872</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3</v>
-      </c>
       <c r="I30" s="7">
-        <v>2262</v>
+        <v>17647</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N30" s="7">
-        <v>9135</v>
+        <v>26455</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>8238</v>
+        <v>5427</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>20122</v>
+        <v>2668</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="N31" s="7">
-        <v>28360</v>
+        <v>8095</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>72423</v>
+        <v>804</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>72594</v>
+        <v>1940</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>195</v>
       </c>
       <c r="M32" s="7">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>145016</v>
+        <v>2744</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>196</v>
@@ -2775,370 +2652,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>117</v>
+        <v>476</v>
       </c>
       <c r="D33" s="7">
-        <v>92986</v>
+        <v>369967</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>129</v>
+        <v>488</v>
       </c>
       <c r="I33" s="7">
-        <v>97898</v>
+        <v>438488</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>246</v>
+        <v>964</v>
       </c>
       <c r="N33" s="7">
-        <v>190884</v>
+        <v>808455</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7">
-        <v>17255</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="A34" t="s">
         <v>199</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="7">
-        <v>10</v>
-      </c>
-      <c r="I34" s="7">
-        <v>10049</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M34" s="7">
-        <v>28</v>
-      </c>
-      <c r="N34" s="7">
-        <v>27304</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>10</v>
-      </c>
-      <c r="D35" s="7">
-        <v>7067</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H35" s="7">
-        <v>10</v>
-      </c>
-      <c r="I35" s="7">
-        <v>7257</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M35" s="7">
-        <v>20</v>
-      </c>
-      <c r="N35" s="7">
-        <v>14325</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7">
-        <v>18</v>
-      </c>
-      <c r="D36" s="7">
-        <v>13888</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H36" s="7">
-        <v>11</v>
-      </c>
-      <c r="I36" s="7">
-        <v>8188</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M36" s="7">
-        <v>29</v>
-      </c>
-      <c r="N36" s="7">
-        <v>22076</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="7">
-        <v>94</v>
-      </c>
-      <c r="D37" s="7">
-        <v>83103</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H37" s="7">
-        <v>85</v>
-      </c>
-      <c r="I37" s="7">
-        <v>63177</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M37" s="7">
-        <v>179</v>
-      </c>
-      <c r="N37" s="7">
-        <v>146280</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="7">
-        <v>349</v>
-      </c>
-      <c r="D38" s="7">
-        <v>297420</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H38" s="7">
-        <v>357</v>
-      </c>
-      <c r="I38" s="7">
-        <v>270574</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M38" s="7">
-        <v>706</v>
-      </c>
-      <c r="N38" s="7">
-        <v>567994</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>489</v>
-      </c>
-      <c r="D39" s="7">
-        <v>418734</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="7">
-        <v>473</v>
-      </c>
-      <c r="I39" s="7">
-        <v>359245</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="7">
-        <v>962</v>
-      </c>
-      <c r="N39" s="7">
-        <v>777979</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>240</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
